--- a/HScupC/data.xlsx
+++ b/HScupC/data.xlsx
@@ -1071,9 +1071,9 @@
   <dimension ref="A1:P411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R176" sqref="R176"/>
+      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
